--- a/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F662E-B227-4592-9E7A-9CFEFED7665A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82858D-9C7F-4737-8604-DFBA0354F104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -306,6 +306,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -314,7 +321,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -340,20 +347,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Yu Gothic"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -364,6 +357,28 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="4">
@@ -422,7 +437,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -435,17 +450,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -729,24 +745,22 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="11" max="11" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="36.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -781,7 +795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -806,9 +820,11 @@
       <c r="J2" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K2" s="2"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K2" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -835,9 +851,11 @@
       <c r="J3" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K3" s="8"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K3" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -854,19 +872,21 @@
         <v>32</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="12" t="s">
+      <c r="G4" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="H4" s="12" t="s">
+      <c r="H4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K4" s="2"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K4" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -883,7 +903,7 @@
         <v>32</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="11" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="5" t="s">
@@ -893,9 +913,11 @@
       <c r="J5" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K5" s="2"/>
-    </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="K5" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="6" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -912,7 +934,7 @@
         <v>32</v>
       </c>
       <c r="F6" s="5"/>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H6" s="5" t="s">
@@ -922,9 +944,11 @@
       <c r="J6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="8"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K6" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -941,7 +965,7 @@
         <v>33</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="13" t="s">
+      <c r="G7" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H7" s="5" t="s">
@@ -951,9 +975,11 @@
       <c r="J7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K7" s="8"/>
-    </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="K7" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -970,7 +996,7 @@
         <v>32</v>
       </c>
       <c r="F8" s="5"/>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H8" s="5" t="s">
@@ -980,9 +1006,11 @@
       <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="8"/>
-    </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="K8" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="6" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -999,7 +1027,7 @@
         <v>32</v>
       </c>
       <c r="F9" s="5"/>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H9" s="5"/>
@@ -1007,9 +1035,11 @@
       <c r="J9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="8"/>
-    </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="K9" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="6" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1026,7 +1056,7 @@
         <v>36</v>
       </c>
       <c r="F10" s="5"/>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="5"/>
@@ -1034,9 +1064,11 @@
       <c r="J10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="8"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K10" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1053,7 +1085,7 @@
         <v>33</v>
       </c>
       <c r="F11" s="2"/>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="11" t="s">
         <v>33</v>
       </c>
       <c r="H11" s="5" t="s">
@@ -1063,9 +1095,11 @@
       <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="8"/>
-    </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+      <c r="K11" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="6" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1082,7 +1116,7 @@
         <v>33</v>
       </c>
       <c r="F12" s="5"/>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H12" s="5" t="s">
@@ -1092,9 +1126,11 @@
       <c r="J12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="9"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K12" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1111,7 +1147,7 @@
         <v>35</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="12" t="s">
         <v>36</v>
       </c>
       <c r="H13" s="5" t="s">
@@ -1121,9 +1157,11 @@
       <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K13" s="2"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K13" s="14" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1150,9 +1188,11 @@
       <c r="J14" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K14" s="2"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+      <c r="K14" s="15" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1175,13 +1215,13 @@
       <c r="J15" s="5"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J17" s="11" t="s">
+    <row r="17" spans="10:10">
+      <c r="J17" s="9" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
-      <c r="J18" s="10" t="s">
+    <row r="18" spans="10:10">
+      <c r="J18" s="8" t="s">
         <v>50</v>
       </c>
     </row>

--- a/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D82858D-9C7F-4737-8604-DFBA0354F104}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A27C1-C822-4756-8B39-DB9FC9E454DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -313,6 +313,16 @@
     <t>王</t>
     <rPh sb="0" eb="1">
       <t>オウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王、済み</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ズ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -945,7 +955,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1007,7 +1017,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1">

--- a/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF7A27C1-C822-4756-8B39-DB9FC9E454DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57F7B5F4-85EE-407F-B509-55A994345E7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -306,13 +306,6 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シンチョク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>王</t>
-    <rPh sb="0" eb="1">
-      <t>オウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -955,7 +948,7 @@
         <v>45</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -1017,7 +1010,7 @@
         <v>45</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1">

--- a/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\06_SC-M_マスタ系\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F65F662E-B227-4592-9E7A-9CFEFED7665A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8AEDA7-9F80-4880-B694-188BFB6EFCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="36075" yWindow="3375" windowWidth="23250" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -422,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -446,6 +446,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -860,7 +863,9 @@
       <c r="H4" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="12"/>
+      <c r="I4" s="15">
+        <v>0.8</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>45</v>
       </c>
@@ -918,7 +923,9 @@
       <c r="H6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="16">
+        <v>0.8</v>
+      </c>
       <c r="J6" s="7" t="s">
         <v>45</v>
       </c>
@@ -976,7 +983,9 @@
       <c r="H8" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="I8" s="5"/>
+      <c r="I8" s="16">
+        <v>0.8</v>
+      </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1002,7 +1011,9 @@
       <c r="G9" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="H9" s="5" t="s">
+        <v>37</v>
+      </c>
       <c r="I9" s="5"/>
       <c r="J9" s="7" t="s">
         <v>45</v>
@@ -1029,7 +1040,9 @@
       <c r="G10" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="H10" s="12" t="s">
+        <v>51</v>
+      </c>
       <c r="I10" s="5"/>
       <c r="J10" s="7" t="s">
         <v>45</v>
@@ -1146,7 +1159,9 @@
       <c r="H14" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="I14" s="2"/>
+      <c r="I14" s="17">
+        <v>0.8</v>
+      </c>
       <c r="J14" s="7" t="s">
         <v>45</v>
       </c>

--- a/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\00-github\backdoor\01_基本設計書\20191231リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE8AEDA7-9F80-4880-B694-188BFB6EFCFD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65036263-57B1-408F-B752-E58537FA8DD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36075" yWindow="3375" windowWidth="23250" windowHeight="14460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,6 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -314,7 +317,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -733,23 +736,23 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.09765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.69921875" customWidth="1"/>
+    <col min="10" max="10" width="10.75" customWidth="1"/>
     <col min="11" max="11" width="55.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="36" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:11" ht="36.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -784,7 +787,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:11">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -811,7 +814,7 @@
       </c>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:11">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -834,13 +837,15 @@
       <c r="H3" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I3" s="5"/>
+      <c r="I3" s="16">
+        <v>0.7</v>
+      </c>
       <c r="J3" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K3" s="8"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:11">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -871,7 +876,7 @@
       </c>
       <c r="K4" s="2"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:11">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -894,13 +899,15 @@
       <c r="H5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="5"/>
+      <c r="I5" s="16">
+        <v>0.3</v>
+      </c>
       <c r="J5" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K5" s="2"/>
     </row>
-    <row r="6" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:11" s="6" customFormat="1">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -931,7 +938,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:11">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -954,13 +961,15 @@
       <c r="H7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I7" s="5"/>
+      <c r="I7" s="16">
+        <v>0.8</v>
+      </c>
       <c r="J7" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:11" s="6" customFormat="1">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -991,7 +1000,7 @@
       </c>
       <c r="K8" s="8"/>
     </row>
-    <row r="9" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:11" s="6" customFormat="1">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -1020,7 +1029,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row r="10" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:11" s="6" customFormat="1">
       <c r="A10" s="5">
         <v>9</v>
       </c>
@@ -1049,7 +1058,7 @@
       </c>
       <c r="K10" s="8"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:11">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -1072,13 +1081,13 @@
       <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="5"/>
+      <c r="I11" s="16"/>
       <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="8"/>
     </row>
-    <row r="12" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:11" s="6" customFormat="1">
       <c r="A12" s="5">
         <v>11</v>
       </c>
@@ -1101,13 +1110,15 @@
       <c r="H12" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I12" s="5"/>
+      <c r="I12" s="16">
+        <v>0.9</v>
+      </c>
       <c r="J12" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="9"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:11">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -1130,13 +1141,15 @@
       <c r="H13" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I13" s="5"/>
+      <c r="I13" s="16">
+        <v>0.9</v>
+      </c>
       <c r="J13" s="7" t="s">
         <v>45</v>
       </c>
       <c r="K13" s="2"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:11">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -1167,7 +1180,7 @@
       </c>
       <c r="K14" s="2"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:11">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -1190,12 +1203,12 @@
       <c r="J15" s="5"/>
       <c r="K15" s="2"/>
     </row>
-    <row r="17" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="17" spans="10:10">
       <c r="J17" s="11" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="10:10" x14ac:dyDescent="0.45">
+    <row r="18" spans="10:10">
       <c r="J18" s="10" t="s">
         <v>50</v>
       </c>
@@ -1203,6 +1216,6 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ローカル作業_Wang\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65036263-57B1-408F-B752-E58537FA8DD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6741A134-1716-4868-981E-543F2650B0D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029" concurrentManualCount="2"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,9 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -33,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="55">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1"/>
@@ -309,6 +306,13 @@
     </rPh>
     <rPh sb="2" eb="4">
       <t>シンチョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>王</t>
+    <rPh sb="0" eb="1">
+      <t>オウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -735,9 +739,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
@@ -936,7 +938,9 @@
       <c r="J6" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K6" s="8"/>
+      <c r="K6" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2">
@@ -998,7 +1002,9 @@
       <c r="J8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K8" s="8"/>
+      <c r="K8" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="9" spans="1:11" s="6" customFormat="1">
       <c r="A9" s="5">
@@ -1027,7 +1033,9 @@
       <c r="J9" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K9" s="8"/>
+      <c r="K9" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="10" spans="1:11" s="6" customFormat="1">
       <c r="A10" s="5">
@@ -1056,7 +1064,9 @@
       <c r="J10" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K10" s="8"/>
+      <c r="K10" s="8" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2">

--- a/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
+++ b/01_基本設計書/20191231リリース/レイアウト作成一覧.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\backdoor\01_基本設計書\20191231リリース\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65036263-57B1-408F-B752-E58537FA8DD9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A768FC1C-0ACB-4970-8A83-9477206CCF3D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="29970" yWindow="810" windowWidth="23055" windowHeight="15390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="レイアウト作成" sheetId="1" r:id="rId1"/>
@@ -736,7 +736,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -900,7 +900,7 @@
         <v>48</v>
       </c>
       <c r="I5" s="16">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>45</v>
@@ -1081,7 +1081,9 @@
       <c r="H11" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="I11" s="16"/>
+      <c r="I11" s="16">
+        <v>0.7</v>
+      </c>
       <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
